--- a/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/Straight path/Antenna_1/Transformed_Coordinates.xlsx
@@ -592,7 +592,7 @@
         <v>112.2986436414445</v>
       </c>
       <c r="H5" t="n">
-        <v>80.73915388602447</v>
+        <v>80.73915388602445</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>98.56197170348568</v>
+        <v>98.56197170348567</v>
       </c>
       <c r="H7" t="n">
-        <v>68.51755720765911</v>
+        <v>68.51755720765914</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>158.4859139179664</v>
       </c>
       <c r="H8" t="n">
-        <v>70.56447478072231</v>
+        <v>70.56447478072235</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>112.069389186869</v>
       </c>
       <c r="H11" t="n">
-        <v>76.45674090204807</v>
+        <v>76.45674090204804</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>112.0400612446725</v>
+        <v>112.0400612446726</v>
       </c>
       <c r="H12" t="n">
-        <v>85.90977016192393</v>
+        <v>85.90977016192392</v>
       </c>
     </row>
     <row r="13">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>30.25629608511745</v>
+        <v>30.25629608511744</v>
       </c>
       <c r="H13" t="n">
-        <v>80.74887233749642</v>
+        <v>80.74887233749644</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>106.5193110005383</v>
       </c>
       <c r="H14" t="n">
-        <v>96.43995926895045</v>
+        <v>96.43995926895046</v>
       </c>
     </row>
     <row r="15">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>99.27847545776839</v>
+        <v>99.27847545776841</v>
       </c>
       <c r="H18" t="n">
         <v>119.1529651005845</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>74.37257570599709</v>
+        <v>74.37257570599708</v>
       </c>
       <c r="H19" t="n">
         <v>115.5030070639268</v>
@@ -1038,7 +1038,7 @@
         <v>130.8947773841159</v>
       </c>
       <c r="H20" t="n">
-        <v>136.5416626820848</v>
+        <v>136.5416626820849</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>53.84628191150983</v>
+        <v>53.84628191150985</v>
       </c>
       <c r="H23" t="n">
         <v>139.5232979926546</v>
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.986062978035026</v>
+        <v>7.986062978034997</v>
       </c>
       <c r="H24" t="n">
-        <v>92.00208608377311</v>
+        <v>92.00208608377315</v>
       </c>
     </row>
     <row r="25">
@@ -1188,7 +1188,7 @@
         <v>119.2448999713294</v>
       </c>
       <c r="H25" t="n">
-        <v>146.9564662238477</v>
+        <v>146.9564662238478</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>142.0775127213433</v>
+        <v>142.0775127213432</v>
       </c>
       <c r="H27" t="n">
         <v>146.6584478531155</v>
@@ -1338,7 +1338,7 @@
         <v>142.1648054198984</v>
       </c>
       <c r="H30" t="n">
-        <v>71.2404114063489</v>
+        <v>71.24041140634895</v>
       </c>
     </row>
     <row r="31">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>137.027049263985</v>
+        <v>137.0270492639851</v>
       </c>
       <c r="H31" t="n">
-        <v>72.19271968324894</v>
+        <v>72.19271968324891</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>122.1387783404236</v>
+        <v>122.1387783404235</v>
       </c>
       <c r="H32" t="n">
-        <v>90.49157640360545</v>
+        <v>90.49157640360548</v>
       </c>
     </row>
     <row r="33">
@@ -1428,7 +1428,7 @@
         <v>122.0261068295646</v>
       </c>
       <c r="H33" t="n">
-        <v>73.31698467263703</v>
+        <v>73.31698467263706</v>
       </c>
     </row>
     <row r="34">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>156.7571627070176</v>
+        <v>156.7571627070177</v>
       </c>
       <c r="H34" t="n">
-        <v>70.1809531251115</v>
+        <v>70.18095312511146</v>
       </c>
     </row>
     <row r="35">
@@ -1488,7 +1488,7 @@
         <v>118.6601415386681</v>
       </c>
       <c r="H35" t="n">
-        <v>71.09487598120015</v>
+        <v>71.0948759812001</v>
       </c>
     </row>
     <row r="36">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>142.1251826310988</v>
+        <v>142.1251826310987</v>
       </c>
       <c r="H36" t="n">
-        <v>74.48001519556193</v>
+        <v>74.48001519556196</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>147.0220801880799</v>
       </c>
       <c r="H37" t="n">
-        <v>76.12871225121918</v>
+        <v>76.12871225121921</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>156.1107496737296</v>
       </c>
       <c r="H39" t="n">
-        <v>87.68072838671453</v>
+        <v>87.68072838671449</v>
       </c>
     </row>
     <row r="40">
@@ -1638,7 +1638,7 @@
         <v>121.9767932882573</v>
       </c>
       <c r="H40" t="n">
-        <v>80.42014927063434</v>
+        <v>80.42014927063435</v>
       </c>
     </row>
     <row r="41">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>83.36315210192815</v>
+        <v>83.36315210192818</v>
       </c>
       <c r="H41" t="n">
-        <v>74.80317650811898</v>
+        <v>74.80317650811892</v>
       </c>
     </row>
     <row r="42">
@@ -1698,7 +1698,7 @@
         <v>131.4924096841508</v>
       </c>
       <c r="H42" t="n">
-        <v>92.70836766860525</v>
+        <v>92.70836766860526</v>
       </c>
     </row>
     <row r="43">
@@ -1728,7 +1728,7 @@
         <v>136.9714312808964</v>
       </c>
       <c r="H43" t="n">
-        <v>83.72825941448815</v>
+        <v>83.72825941448812</v>
       </c>
     </row>
     <row r="44">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>54.34810173438121</v>
+        <v>54.34810173438124</v>
       </c>
       <c r="H45" t="n">
         <v>124.2740368397531</v>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>76.53851119460855</v>
+        <v>76.53851119460852</v>
       </c>
       <c r="H46" t="n">
         <v>129.5685816690202</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>93.9018907380229</v>
+        <v>93.90189073802289</v>
       </c>
       <c r="H47" t="n">
         <v>103.5217238762312</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>65.64525931379455</v>
+        <v>65.64525931379454</v>
       </c>
       <c r="H48" t="n">
         <v>105.5047375659518</v>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>74.83121450593393</v>
+        <v>74.8312145059339</v>
       </c>
       <c r="H50" t="n">
-        <v>117.2747949399009</v>
+        <v>117.274794939901</v>
       </c>
     </row>
     <row r="51">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>20.90829762195901</v>
+        <v>20.90829762195904</v>
       </c>
       <c r="H51" t="n">
         <v>116.3814814190517</v>
